--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Medication Treatment November 2020</t>
   </si>
@@ -122,16 +122,10 @@
     <t>true</t>
   </si>
   <si>
-    <t>6:13 am</t>
+    <t>6:16 am</t>
   </si>
   <si>
     <t>Christopher McCoy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>6:16 am</t>
   </si>
 </sst>
 </file>
@@ -239,7 +233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -397,23 +391,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,16 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Neil Long" sheetId="1" r:id="rId1"/>
-    <sheet name="Christopher McCoy" sheetId="2" r:id="rId2"/>
+    <sheet name="Jamie Long" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Medication Treatment November 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Medication Treatment January 2021</t>
   </si>
   <si>
     <t>Dependent Information:</t>
@@ -23,7 +22,7 @@
     <t>First Name:</t>
   </si>
   <si>
-    <t>Neil</t>
+    <t>Jamie</t>
   </si>
   <si>
     <t>Last Name:</t>
@@ -35,16 +34,7 @@
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>11-01-2020</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>McCoy</t>
-  </si>
-  <si>
-    <t>12-17-1996</t>
+    <t>12-30-2020</t>
   </si>
   <si>
     <t>Medication #1</t>
@@ -53,79 +43,118 @@
     <t>Rxs Number:</t>
   </si>
   <si>
-    <t>324242</t>
+    <t>32424242</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Tyfoid</t>
   </si>
   <si>
     <t>Doctor's Name:</t>
   </si>
   <si>
+    <t>Dr. Tenderson</t>
+  </si>
+  <si>
+    <t>Doctor's Contact:</t>
+  </si>
+  <si>
+    <t>3234234234</t>
+  </si>
+  <si>
+    <t>Dosage:</t>
+  </si>
+  <si>
+    <t>3 MG</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>For foot</t>
+  </si>
+  <si>
+    <t>Date Prescribed:</t>
+  </si>
+  <si>
+    <t>1/11/2021</t>
+  </si>
+  <si>
+    <t>Intructions:</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Is Away:</t>
+  </si>
+  <si>
+    <t>Time Submitted:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1/18/2021</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>6:36 am</t>
+  </si>
+  <si>
+    <t>Christopher McCoy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t>3242424</t>
+  </si>
+  <si>
+    <t>Benzoid</t>
+  </si>
+  <si>
     <t>Dr. Boid</t>
   </si>
   <si>
-    <t>Doctor's Contact:</t>
-  </si>
-  <si>
-    <t>3242342342</t>
-  </si>
-  <si>
-    <t>Dosage:</t>
-  </si>
-  <si>
-    <t>3 MG</t>
-  </si>
-  <si>
-    <t>Reason:</t>
-  </si>
-  <si>
-    <t>b/c</t>
-  </si>
-  <si>
-    <t>Date Prescribed:</t>
-  </si>
-  <si>
-    <t>11/3/2020</t>
-  </si>
-  <si>
-    <t>Intructions:</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Is Away:</t>
-  </si>
-  <si>
-    <t>Time Submitted:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>11/19/2020</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>6:16 am</t>
-  </si>
-  <si>
-    <t>Christopher McCoy</t>
+    <t>3232342424</t>
+  </si>
+  <si>
+    <t>3 pills</t>
+  </si>
+  <si>
+    <t>For headaches</t>
+  </si>
+  <si>
+    <t>Take when needed.</t>
+  </si>
+  <si>
+    <t>01-18-2021</t>
+  </si>
+  <si>
+    <t>6:30 am</t>
+  </si>
+  <si>
+    <t>Hes far far away</t>
   </si>
 </sst>
 </file>
@@ -179,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -226,169 +255,226 @@
         <v>7</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="0" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Medication Treatment January 2021</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Is Away:</t>
   </si>
   <si>
-    <t>Time Submitted:</t>
+    <t>Date Submitted:</t>
   </si>
   <si>
     <t>Given By:</t>
@@ -109,52 +109,49 @@
     <t>Notes:</t>
   </si>
   <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t>3242424</t>
+  </si>
+  <si>
+    <t>Benzoid</t>
+  </si>
+  <si>
+    <t>Dr. Boid</t>
+  </si>
+  <si>
+    <t>3232342424</t>
+  </si>
+  <si>
+    <t>3 pills</t>
+  </si>
+  <si>
+    <t>For headaches</t>
+  </si>
+  <si>
     <t>1/18/2021</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>6:36 am</t>
+    <t>Take when needed.</t>
+  </si>
+  <si>
+    <t>01-18-2021</t>
+  </si>
+  <si>
+    <t>1/1/2021</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>1/19/2021 6:18 am</t>
   </si>
   <si>
     <t>Christopher McCoy</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Medication #2</t>
-  </si>
-  <si>
-    <t>3242424</t>
-  </si>
-  <si>
-    <t>Benzoid</t>
-  </si>
-  <si>
-    <t>Dr. Boid</t>
-  </si>
-  <si>
-    <t>3232342424</t>
-  </si>
-  <si>
-    <t>3 pills</t>
-  </si>
-  <si>
-    <t>For headaches</t>
-  </si>
-  <si>
-    <t>Take when needed.</t>
-  </si>
-  <si>
-    <t>01-18-2021</t>
-  </si>
-  <si>
-    <t>6:30 am</t>
-  </si>
-  <si>
-    <t>Hes far far away</t>
   </si>
 </sst>
 </file>
@@ -208,7 +205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -349,132 +346,115 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,15 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Jamie Long" sheetId="1" r:id="rId1"/>
+    <sheet name="Nancy Homes" sheetId="1" r:id="rId1"/>
+    <sheet name="Johhny Cash" sheetId="2" r:id="rId2"/>
+    <sheet name="Casie Donely" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Medication Treatment January 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Medication Treatment April 2021</t>
   </si>
   <si>
     <t>Dependent Information:</t>
@@ -22,19 +24,19 @@
     <t>First Name:</t>
   </si>
   <si>
-    <t>Jamie</t>
+    <t>Nancy</t>
   </si>
   <si>
     <t>Last Name:</t>
   </si>
   <si>
-    <t>Long</t>
+    <t>Homes</t>
   </si>
   <si>
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>12-30-2020</t>
+    <t>12-09-2005</t>
   </si>
   <si>
     <t>Medication #1</t>
@@ -43,57 +45,51 @@
     <t>Rxs Number:</t>
   </si>
   <si>
-    <t>32424242</t>
+    <t>-</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Tyfoid</t>
+    <t>Benzoid</t>
   </si>
   <si>
     <t>Doctor's Name:</t>
   </si>
   <si>
-    <t>Dr. Tenderson</t>
+    <t>dr. name</t>
   </si>
   <si>
     <t>Doctor's Contact:</t>
   </si>
   <si>
-    <t>3234234234</t>
+    <t>0000000000</t>
   </si>
   <si>
     <t>Dosage:</t>
   </si>
   <si>
-    <t>3 MG</t>
+    <t>6 MG</t>
   </si>
   <si>
     <t>Reason:</t>
   </si>
   <si>
-    <t>For foot</t>
+    <t>For Medical Issues</t>
   </si>
   <si>
     <t>Date Prescribed:</t>
   </si>
   <si>
-    <t>1/11/2021</t>
+    <t>3/2/2021</t>
   </si>
   <si>
     <t>Intructions:</t>
   </si>
   <si>
-    <t>Nope</t>
-  </si>
-  <si>
     <t>End Date:</t>
   </si>
   <si>
-    <t>02-11-2021</t>
-  </si>
-  <si>
     <t>Dates Taken:</t>
   </si>
   <si>
@@ -109,49 +105,58 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Medication #2</t>
-  </si>
-  <si>
-    <t>3242424</t>
-  </si>
-  <si>
-    <t>Benzoid</t>
+    <t>Johhny</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>01-05-2010</t>
+  </si>
+  <si>
+    <t>2 MG</t>
+  </si>
+  <si>
+    <t>3/9/2021</t>
+  </si>
+  <si>
+    <t>Casie</t>
+  </si>
+  <si>
+    <t>Donely</t>
+  </si>
+  <si>
+    <t>12-02-2008</t>
+  </si>
+  <si>
+    <t>Glycoken</t>
   </si>
   <si>
     <t>Dr. Boid</t>
   </si>
   <si>
-    <t>3232342424</t>
-  </si>
-  <si>
-    <t>3 pills</t>
-  </si>
-  <si>
-    <t>For headaches</t>
-  </si>
-  <si>
-    <t>1/18/2021</t>
-  </si>
-  <si>
-    <t>Take when needed.</t>
-  </si>
-  <si>
-    <t>01-18-2021</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
+    <t>3 Pill(s)</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
+  </si>
+  <si>
+    <t>3/31/2021</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
+  </si>
+  <si>
+    <t>4/23/2021</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>1/19/2021 6:18 am</t>
+    <t>4/23/2021 @ 8:11 am</t>
   </si>
   <si>
     <t>Christopher McCoy</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -205,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -318,143 +323,345 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="E18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Nancy Homes" sheetId="1" r:id="rId1"/>
-    <sheet name="Johhny Cash" sheetId="2" r:id="rId2"/>
-    <sheet name="Casie Donely" sheetId="3" r:id="rId3"/>
+    <sheet name="Jamie Homes" sheetId="1" r:id="rId1"/>
+    <sheet name="Nancy Homes" sheetId="2" r:id="rId2"/>
+    <sheet name="Joey McCord" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Medication Treatment April 2021</t>
   </si>
@@ -24,139 +24,154 @@
     <t>First Name:</t>
   </si>
   <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Last Name:</t>
+  </si>
+  <si>
+    <t>Homes</t>
+  </si>
+  <si>
+    <t>Date of Birth:</t>
+  </si>
+  <si>
+    <t>12-02-2007</t>
+  </si>
+  <si>
+    <t>Medication #1</t>
+  </si>
+  <si>
+    <t>Rxs Number:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Benzoid</t>
+  </si>
+  <si>
+    <t>Doctor's Name:</t>
+  </si>
+  <si>
+    <t>Dr. Kyle</t>
+  </si>
+  <si>
+    <t>Doctor's Contact:</t>
+  </si>
+  <si>
+    <t>4807323232</t>
+  </si>
+  <si>
+    <t>Dosage:</t>
+  </si>
+  <si>
+    <t>2 MG</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>For Medical Issues</t>
+  </si>
+  <si>
+    <t>Date Prescribed:</t>
+  </si>
+  <si>
+    <t>4/4/2021</t>
+  </si>
+  <si>
+    <t>Intructions:</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Is Away:</t>
+  </si>
+  <si>
+    <t>Date Submitted:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>4/27/2021</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>4/27/2021 @ 8:09 am</t>
+  </si>
+  <si>
+    <t>Christopher McCoy</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
+  </si>
+  <si>
+    <t>4/27/2021 @ 8:18 am</t>
+  </si>
+  <si>
     <t>Nancy</t>
   </si>
   <si>
-    <t>Last Name:</t>
-  </si>
-  <si>
-    <t>Homes</t>
-  </si>
-  <si>
-    <t>Date of Birth:</t>
-  </si>
-  <si>
-    <t>12-09-2005</t>
-  </si>
-  <si>
-    <t>Medication #1</t>
-  </si>
-  <si>
-    <t>Rxs Number:</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Benzoid</t>
-  </si>
-  <si>
-    <t>Doctor's Name:</t>
-  </si>
-  <si>
-    <t>dr. name</t>
-  </si>
-  <si>
-    <t>Doctor's Contact:</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>Dosage:</t>
-  </si>
-  <si>
-    <t>6 MG</t>
-  </si>
-  <si>
-    <t>Reason:</t>
-  </si>
-  <si>
-    <t>For Medical Issues</t>
-  </si>
-  <si>
-    <t>Date Prescribed:</t>
-  </si>
-  <si>
-    <t>3/2/2021</t>
-  </si>
-  <si>
-    <t>Intructions:</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Is Away:</t>
-  </si>
-  <si>
-    <t>Date Submitted:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Johhny</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>01-05-2010</t>
-  </si>
-  <si>
-    <t>2 MG</t>
-  </si>
-  <si>
-    <t>3/9/2021</t>
-  </si>
-  <si>
-    <t>Casie</t>
-  </si>
-  <si>
-    <t>Donely</t>
-  </si>
-  <si>
-    <t>12-02-2008</t>
-  </si>
-  <si>
-    <t>Glycoken</t>
-  </si>
-  <si>
-    <t>Dr. Boid</t>
-  </si>
-  <si>
-    <t>3 Pill(s)</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
-  </si>
-  <si>
-    <t>3/31/2021</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
-  </si>
-  <si>
-    <t>4/23/2021</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>4/23/2021 @ 8:11 am</t>
-  </si>
-  <si>
-    <t>Christopher McCoy</t>
+    <t>05-06-2006</t>
+  </si>
+  <si>
+    <t>Tyfoid</t>
+  </si>
+  <si>
+    <t>Dr. Homes</t>
+  </si>
+  <si>
+    <t>2342342424</t>
+  </si>
+  <si>
+    <t>3 mg</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Glycoklen</t>
+  </si>
+  <si>
+    <t>3 MG</t>
+  </si>
+  <si>
+    <t>For stomach issues</t>
+  </si>
+  <si>
+    <t>4/12/2021</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>03-30-2021</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>McCord</t>
+  </si>
+  <si>
+    <t>03-23-2009</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -351,6 +366,40 @@
         <v>29</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -358,7 +407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -386,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -394,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -402,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -423,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -431,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -439,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -447,7 +496,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -463,7 +512,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -496,6 +545,100 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -506,7 +649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -534,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -542,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -550,118 +693,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,17 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Jamie Homes" sheetId="1" r:id="rId1"/>
-    <sheet name="Nancy Homes" sheetId="2" r:id="rId2"/>
-    <sheet name="Joey McCord" sheetId="3" r:id="rId3"/>
+    <sheet name="Tom McCoy" sheetId="1" r:id="rId1"/>
+    <sheet name="Don McCoy" sheetId="2" r:id="rId2"/>
+    <sheet name="Horald Clay" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t>Medication Treatment April 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>Medication Treatment June 2021</t>
   </si>
   <si>
     <t>Dependent Information:</t>
@@ -24,19 +24,19 @@
     <t>First Name:</t>
   </si>
   <si>
-    <t>Jamie</t>
+    <t>Tom</t>
   </si>
   <si>
     <t>Last Name:</t>
   </si>
   <si>
-    <t>Homes</t>
+    <t>McCoy</t>
   </si>
   <si>
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>12-02-2007</t>
+    <t>05-30-2004</t>
   </si>
   <si>
     <t>Medication #1</t>
@@ -51,127 +51,106 @@
     <t>Name:</t>
   </si>
   <si>
+    <t>Tyfoid</t>
+  </si>
+  <si>
+    <t>Doctor's Name:</t>
+  </si>
+  <si>
+    <t>dr. name</t>
+  </si>
+  <si>
+    <t>Doctor's Contact:</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>Dosage:</t>
+  </si>
+  <si>
+    <t>2 MG</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>For Medical Issues</t>
+  </si>
+  <si>
+    <t>Date Prescribed:</t>
+  </si>
+  <si>
+    <t>5/30/2021</t>
+  </si>
+  <si>
+    <t>Intructions:</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Is Away:</t>
+  </si>
+  <si>
+    <t>Date Submitted:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>6/7/2021</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>6/7/2021 @ 6:10 am</t>
+  </si>
+  <si>
+    <t>Jamie Fox</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
     <t>Benzoid</t>
   </si>
   <si>
-    <t>Doctor's Name:</t>
-  </si>
-  <si>
-    <t>Dr. Kyle</t>
-  </si>
-  <si>
-    <t>Doctor's Contact:</t>
-  </si>
-  <si>
-    <t>4807323232</t>
-  </si>
-  <si>
-    <t>Dosage:</t>
-  </si>
-  <si>
-    <t>2 MG</t>
-  </si>
-  <si>
-    <t>Reason:</t>
-  </si>
-  <si>
-    <t>For Medical Issues</t>
-  </si>
-  <si>
-    <t>Date Prescribed:</t>
-  </si>
-  <si>
-    <t>4/4/2021</t>
-  </si>
-  <si>
-    <t>Intructions:</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Is Away:</t>
-  </si>
-  <si>
-    <t>Date Submitted:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>4/27/2021</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>4/27/2021 @ 8:09 am</t>
-  </si>
-  <si>
-    <t>Christopher McCoy</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
-  </si>
-  <si>
-    <t>4/27/2021 @ 8:18 am</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>05-06-2006</t>
-  </si>
-  <si>
-    <t>Tyfoid</t>
-  </si>
-  <si>
-    <t>Dr. Homes</t>
-  </si>
-  <si>
-    <t>2342342424</t>
-  </si>
-  <si>
-    <t>3 mg</t>
-  </si>
-  <si>
-    <t>Medication #2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Glycoklen</t>
-  </si>
-  <si>
-    <t>3 MG</t>
-  </si>
-  <si>
-    <t>For stomach issues</t>
-  </si>
-  <si>
-    <t>4/12/2021</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
-  </si>
-  <si>
-    <t>03-30-2021</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>McCord</t>
-  </si>
-  <si>
-    <t>03-23-2009</t>
+    <t>5 MG</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>12-23-2006</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>6/7/2021 @ 6:39 am</t>
+  </si>
+  <si>
+    <t>Stomach not feeling well.</t>
+  </si>
+  <si>
+    <t>Horald</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>05-30-2021</t>
+  </si>
+  <si>
+    <t>8 MG</t>
   </si>
 </sst>
 </file>
@@ -225,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -380,24 +359,101 @@
         <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="0" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>10</v>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -407,7 +463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -435,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -451,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -472,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -480,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -488,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -496,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -548,98 +604,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>29</v>
+      <c r="D19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +628,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -677,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -685,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -693,7 +672,101 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Medication Treatment June 2021</t>
   </si>
@@ -51,85 +51,94 @@
     <t>Name:</t>
   </si>
   <si>
+    <t>Benzoid</t>
+  </si>
+  <si>
+    <t>Doctor's Name:</t>
+  </si>
+  <si>
+    <t>dr. name</t>
+  </si>
+  <si>
+    <t>Doctor's Contact:</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>Dosage:</t>
+  </si>
+  <si>
+    <t>5 MG</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>For Medical Issues</t>
+  </si>
+  <si>
+    <t>Date Prescribed:</t>
+  </si>
+  <si>
+    <t>5/30/2021</t>
+  </si>
+  <si>
+    <t>Intructions:</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Is Away:</t>
+  </si>
+  <si>
+    <t>Date Submitted:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Tyfoid</t>
   </si>
   <si>
-    <t>Doctor's Name:</t>
-  </si>
-  <si>
-    <t>dr. name</t>
-  </si>
-  <si>
-    <t>Doctor's Contact:</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>Dosage:</t>
-  </si>
-  <si>
     <t>2 MG</t>
   </si>
   <si>
-    <t>Reason:</t>
-  </si>
-  <si>
-    <t>For Medical Issues</t>
-  </si>
-  <si>
-    <t>Date Prescribed:</t>
-  </si>
-  <si>
-    <t>5/30/2021</t>
-  </si>
-  <si>
-    <t>Intructions:</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Is Away:</t>
-  </si>
-  <si>
-    <t>Date Submitted:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
+    <t>6/10/2021</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>6/10/2021 @ 2:24 pm</t>
+  </si>
+  <si>
+    <t>Jamie Fox</t>
+  </si>
+  <si>
+    <t>6/10/2021 @ 9:26 am</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>12-23-2006</t>
   </si>
   <si>
     <t>6/7/2021</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>6/7/2021 @ 6:10 am</t>
-  </si>
-  <si>
-    <t>Jamie Fox</t>
-  </si>
-  <si>
-    <t>Medication #2</t>
-  </si>
-  <si>
-    <t>Benzoid</t>
-  </si>
-  <si>
-    <t>5 MG</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>12-23-2006</t>
   </si>
   <si>
     <t>true</t>
@@ -204,7 +213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -345,115 +354,132 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>10</v>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
+      <c r="A32" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -507,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -528,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -552,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -606,19 +632,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -664,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -672,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -693,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -717,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -103,13 +103,13 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>6/10/2021</t>
+    <t>6/11/2021</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>6/10/2021 @ 10:50 am</t>
+    <t>6/11/2021 @ 6:13 am</t>
   </si>
   <si>
     <t>John Snow</t>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Jamie Homes" sheetId="1" r:id="rId1"/>
+    <sheet name="Christopher McCoy" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Medication Treatment June 2021</t>
   </si>
@@ -22,19 +22,19 @@
     <t>First Name:</t>
   </si>
   <si>
-    <t>Jamie</t>
+    <t>Christopher</t>
   </si>
   <si>
     <t>Last Name:</t>
   </si>
   <si>
-    <t>Homes</t>
+    <t>McCoy</t>
   </si>
   <si>
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>05-30-2021</t>
+    <t>12-17-1996</t>
   </si>
   <si>
     <t>Medication #1</t>
@@ -43,7 +43,7 @@
     <t>Rxs Number:</t>
   </si>
   <si>
-    <t>-</t>
+    <t/>
   </si>
   <si>
     <t>Name:</t>
@@ -61,13 +61,13 @@
     <t>Doctor's Contact:</t>
   </si>
   <si>
-    <t>0000000000</t>
+    <t>9999999999</t>
   </si>
   <si>
     <t>Dosage:</t>
   </si>
   <si>
-    <t>4 MG</t>
+    <t>2 MG</t>
   </si>
   <si>
     <t>Reason:</t>
@@ -79,12 +79,15 @@
     <t>Date Prescribed:</t>
   </si>
   <si>
-    <t>5/30/2021</t>
+    <t>6/12/2021</t>
   </si>
   <si>
     <t>Intructions:</t>
   </si>
   <si>
+    <t>Lets gooooooooo</t>
+  </si>
+  <si>
     <t>End Date:</t>
   </si>
   <si>
@@ -101,18 +104,6 @@
   </si>
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>6/11/2021</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>6/11/2021 @ 6:13 am</t>
-  </si>
-  <si>
-    <t>John Snow</t>
   </si>
 </sst>
 </file>
@@ -166,7 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -279,49 +270,32 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Medication Treatment June 2021</t>
   </si>
@@ -43,13 +43,13 @@
     <t>Rxs Number:</t>
   </si>
   <si>
-    <t/>
+    <t>-</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Benzoid 1</t>
+    <t>Benzoid</t>
   </si>
   <si>
     <t>Doctor's Name:</t>
@@ -61,7 +61,7 @@
     <t>Doctor's Contact:</t>
   </si>
   <si>
-    <t>9999999999</t>
+    <t>0000000000</t>
   </si>
   <si>
     <t>Dosage:</t>
@@ -79,31 +79,37 @@
     <t>Date Prescribed:</t>
   </si>
   <si>
-    <t>6/12/2021</t>
+    <t>06/05/2021</t>
   </si>
   <si>
     <t>Intructions:</t>
   </si>
   <si>
-    <t>Lets gooooooooo</t>
-  </si>
-  <si>
     <t>End Date:</t>
   </si>
   <si>
+    <t>06/22/2021</t>
+  </si>
+  <si>
     <t>Dates Taken:</t>
   </si>
   <si>
-    <t>Is Away:</t>
-  </si>
-  <si>
-    <t>Date Submitted:</t>
+    <t>Time:</t>
   </si>
   <si>
     <t>Given By:</t>
   </si>
   <si>
-    <t>Notes:</t>
+    <t>06/21/2021</t>
+  </si>
+  <si>
+    <t>12:14 pm</t>
+  </si>
+  <si>
+    <t>Admin One</t>
+  </si>
+  <si>
+    <t>12:15 pm</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -270,18 +276,18 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -291,11 +297,27 @@
       <c r="C18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -5,15 +5,21 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Christopher McCoy" sheetId="1" r:id="rId1"/>
+    <sheet name="Starla Howell" sheetId="1" r:id="rId1"/>
+    <sheet name="Rhian Kelly" sheetId="2" r:id="rId2"/>
+    <sheet name="Raelynne Singleton" sheetId="3" r:id="rId3"/>
+    <sheet name="Jewell Bryant" sheetId="4" r:id="rId4"/>
+    <sheet name="Zara Brown" sheetId="5" r:id="rId5"/>
+    <sheet name="Jamie Homes" sheetId="6" r:id="rId6"/>
+    <sheet name="Christopher McCoy" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Medication Treatment June 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+  <si>
+    <t>Medication Treatment July 2021</t>
   </si>
   <si>
     <t>Dependent Information:</t>
@@ -22,94 +28,349 @@
     <t>First Name:</t>
   </si>
   <si>
+    <t>Starla</t>
+  </si>
+  <si>
+    <t>Last Name:</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Date of Birth:</t>
+  </si>
+  <si>
+    <t>11-28-2005</t>
+  </si>
+  <si>
+    <t>Medication #1</t>
+  </si>
+  <si>
+    <t>Rxs Number:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Nat Mur 200c</t>
+  </si>
+  <si>
+    <t>Doctor's Name:</t>
+  </si>
+  <si>
+    <t>Dr. Correia</t>
+  </si>
+  <si>
+    <t>Doctor's Contact:</t>
+  </si>
+  <si>
+    <t>4805326789</t>
+  </si>
+  <si>
+    <t>Dosage:</t>
+  </si>
+  <si>
+    <t>2 Pellets</t>
+  </si>
+  <si>
+    <t>Reason:</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Date Prescribed:</t>
+  </si>
+  <si>
+    <t>04/26/2021</t>
+  </si>
+  <si>
+    <t>Intructions:</t>
+  </si>
+  <si>
+    <t>Take 2 pellets two times a day, am and pm.</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>07/18/2021</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Was Administered:</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t>Boogley Woogley</t>
+  </si>
+  <si>
+    <t>2 caps</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>Don't take</t>
+  </si>
+  <si>
+    <t>Medication #3</t>
+  </si>
+  <si>
+    <t>Kids Attention</t>
+  </si>
+  <si>
+    <t>2 Tabs</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Take 2 tabs daily in the morning.</t>
+  </si>
+  <si>
+    <t>Medication #4</t>
+  </si>
+  <si>
+    <t>1 Tabs</t>
+  </si>
+  <si>
+    <t>Take one tab daily in the evening.</t>
+  </si>
+  <si>
+    <t>Rhian</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>07-15-2005</t>
+  </si>
+  <si>
+    <t>FemRebalance</t>
+  </si>
+  <si>
+    <t>2 capsules</t>
+  </si>
+  <si>
+    <t>Excessive &amp; frequent menstruation</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>Take 2 caps in the morning with food.</t>
+  </si>
+  <si>
+    <t>Vital Nutrients Iron Plus C</t>
+  </si>
+  <si>
+    <t>Dr. Guanso</t>
+  </si>
+  <si>
+    <t>4807181285</t>
+  </si>
+  <si>
+    <t>1 Capsule</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>01/27/2021</t>
+  </si>
+  <si>
+    <t>Take one cap daily with food.</t>
+  </si>
+  <si>
+    <t>Raelynne</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>04-23-2005</t>
+  </si>
+  <si>
+    <t>Guanfacine HCL ER 2mg</t>
+  </si>
+  <si>
+    <t>Dr. Chowdhury</t>
+  </si>
+  <si>
+    <t>6022797655</t>
+  </si>
+  <si>
+    <t>1 tablet</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>05/06/2021</t>
+  </si>
+  <si>
+    <t>Take one tablet by mouth every day in the morning.</t>
+  </si>
+  <si>
+    <t>Vyvanse 40 mg</t>
+  </si>
+  <si>
+    <t>1 capsule</t>
+  </si>
+  <si>
+    <t>05/12/2021</t>
+  </si>
+  <si>
+    <t>Take one capsule by mouth every day in the morning.</t>
+  </si>
+  <si>
+    <t>B-Complex w/Metafolin </t>
+  </si>
+  <si>
+    <t>B12 Deficiency</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>Take one capsule by mouth every morning.</t>
+  </si>
+  <si>
+    <t>Jewell</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>11-18-2009</t>
+  </si>
+  <si>
+    <t>2 pellets</t>
+  </si>
+  <si>
+    <t>Chronic headaches</t>
+  </si>
+  <si>
+    <t>02/25/2021</t>
+  </si>
+  <si>
+    <t>Take 2 pellets 2x daily; am/pm.</t>
+  </si>
+  <si>
+    <t>N-Acetyl-Cycstein (NAC) 600mg</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>1 cap daily in the morning.</t>
+  </si>
+  <si>
+    <t>02/27/2021</t>
+  </si>
+  <si>
+    <t>2 caps daily in the morning.</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>06-16-2009</t>
+  </si>
+  <si>
+    <t>Melatonin 3mg</t>
+  </si>
+  <si>
+    <t>4805632678</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>06/10/2021</t>
+  </si>
+  <si>
+    <t>Take 1 tablet before bed as needed for sleep</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Homes</t>
+  </si>
+  <si>
+    <t>05-30-2021</t>
+  </si>
+  <si>
     <t>Christopher</t>
   </si>
   <si>
-    <t>Last Name:</t>
-  </si>
-  <si>
     <t>McCoy</t>
   </si>
   <si>
-    <t>Date of Birth:</t>
-  </si>
-  <si>
-    <t>12-17-1996</t>
-  </si>
-  <si>
-    <t>Medication #1</t>
-  </si>
-  <si>
-    <t>Rxs Number:</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Name:</t>
+    <t>06-22-2021</t>
   </si>
   <si>
     <t>Benzoid</t>
   </si>
   <si>
-    <t>Doctor's Name:</t>
-  </si>
-  <si>
     <t>dr. name</t>
   </si>
   <si>
-    <t>Doctor's Contact:</t>
-  </si>
-  <si>
     <t>0000000000</t>
   </si>
   <si>
-    <t>Dosage:</t>
-  </si>
-  <si>
     <t>2 MG</t>
   </si>
   <si>
-    <t>Reason:</t>
-  </si>
-  <si>
     <t>For Medical Issues</t>
   </si>
   <si>
-    <t>Date Prescribed:</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
-    <t>Intructions:</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>06/22/2021</t>
-  </si>
-  <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Time:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
     <t>06/21/2021</t>
   </si>
   <si>
-    <t>12:14 pm</t>
-  </si>
-  <si>
-    <t>Admin One</t>
-  </si>
-  <si>
-    <t>12:15 pm</t>
+    <t>02:43 pm</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>07/19/2021</t>
+  </si>
+  <si>
+    <t>02:55 pm</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nope he didnt</t>
   </si>
 </sst>
 </file>
@@ -163,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -276,48 +537,1612 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/data.xlsx
+++ b/config/excel/data.xlsx
@@ -10,16 +10,18 @@
     <sheet name="Raelynne Singleton" sheetId="3" r:id="rId3"/>
     <sheet name="Jewell Bryant" sheetId="4" r:id="rId4"/>
     <sheet name="Zara Brown" sheetId="5" r:id="rId5"/>
-    <sheet name="Jamie Homes" sheetId="6" r:id="rId6"/>
-    <sheet name="Christopher McCoy" sheetId="7" r:id="rId7"/>
+    <sheet name="Lilliana Vega" sheetId="6" r:id="rId6"/>
+    <sheet name="Roman Burton" sheetId="7" r:id="rId7"/>
+    <sheet name="Miklo Cristerna" sheetId="8" r:id="rId8"/>
+    <sheet name="Daniel Ovard" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
-  <si>
-    <t>Medication Treatment July 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+  <si>
+    <t>Medication Treatment August 2021</t>
   </si>
   <si>
     <t>Dependent Information:</t>
@@ -43,15 +45,18 @@
     <t>11-28-2005</t>
   </si>
   <si>
+    <t>Date of Placement:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Medication #1</t>
   </si>
   <si>
     <t>Rxs Number:</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -88,7 +93,7 @@
     <t>04/26/2021</t>
   </si>
   <si>
-    <t>Intructions:</t>
+    <t>Instructions:</t>
   </si>
   <si>
     <t>Take 2 pellets two times a day, am and pm.</t>
@@ -97,106 +102,142 @@
     <t>End Date:</t>
   </si>
   <si>
+    <t>08/11/2021</t>
+  </si>
+  <si>
+    <t>Dates Taken:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Given By:</t>
+  </si>
+  <si>
+    <t>Was Administered:</t>
+  </si>
+  <si>
+    <t>Medication #2</t>
+  </si>
+  <si>
+    <t>Kids Attention Multi Softgel</t>
+  </si>
+  <si>
+    <t>1 Softgel</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>Take one softgel at bedtime.</t>
+  </si>
+  <si>
+    <t>Medication #3</t>
+  </si>
+  <si>
+    <t>2 Softgels</t>
+  </si>
+  <si>
+    <t>02/24/2020</t>
+  </si>
+  <si>
+    <t>Take 2 softgels every morning.</t>
+  </si>
+  <si>
+    <t>Rhian</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>07-15-2005</t>
+  </si>
+  <si>
+    <t>Vital Nutrients Iron Plus C 20mg/200mg capsules</t>
+  </si>
+  <si>
+    <t>Dr. Guanso</t>
+  </si>
+  <si>
+    <t>4807181285</t>
+  </si>
+  <si>
+    <t>1 Capsule</t>
+  </si>
+  <si>
+    <t>Low Iron</t>
+  </si>
+  <si>
+    <t>01/27/2021</t>
+  </si>
+  <si>
+    <t>Take one cap daily with food.</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>07:24 am</t>
+  </si>
+  <si>
+    <t>Charlotte Cruse</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nux 30c homeopathic pellets</t>
+  </si>
+  <si>
+    <t>Menses &amp; Irritability</t>
+  </si>
+  <si>
     <t>07/18/2021</t>
   </si>
   <si>
-    <t>Dates Taken:</t>
-  </si>
-  <si>
-    <t>Time:</t>
-  </si>
-  <si>
-    <t>Given By:</t>
-  </si>
-  <si>
-    <t>Was Administered:</t>
-  </si>
-  <si>
-    <t>Medication #2</t>
-  </si>
-  <si>
-    <t>Boogley Woogley</t>
-  </si>
-  <si>
-    <t>2 caps</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>06/09/2021</t>
-  </si>
-  <si>
-    <t>Don't take</t>
-  </si>
-  <si>
-    <t>Medication #3</t>
-  </si>
-  <si>
-    <t>Kids Attention</t>
-  </si>
-  <si>
-    <t>2 Tabs</t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t>Take 2 tabs daily in the morning.</t>
+    <t>2 pellets 2x day; am &amp; pm</t>
+  </si>
+  <si>
+    <t>FemRebalance</t>
+  </si>
+  <si>
+    <t>2 capsules</t>
+  </si>
+  <si>
+    <t>Excessive &amp; frequent menstruation</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>Take 2 caps in the morning with food.</t>
   </si>
   <si>
     <t>Medication #4</t>
   </si>
   <si>
-    <t>1 Tabs</t>
-  </si>
-  <si>
-    <t>Take one tab daily in the evening.</t>
-  </si>
-  <si>
-    <t>Rhian</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>07-15-2005</t>
-  </si>
-  <si>
-    <t>FemRebalance</t>
-  </si>
-  <si>
-    <t>2 capsules</t>
-  </si>
-  <si>
-    <t>Excessive &amp; frequent menstruation</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>Take 2 caps in the morning with food.</t>
-  </si>
-  <si>
-    <t>Vital Nutrients Iron Plus C</t>
-  </si>
-  <si>
-    <t>Dr. Guanso</t>
-  </si>
-  <si>
-    <t>4807181285</t>
-  </si>
-  <si>
-    <t>1 Capsule</t>
-  </si>
-  <si>
-    <t>Anemia</t>
-  </si>
-  <si>
-    <t>01/27/2021</t>
-  </si>
-  <si>
-    <t>Take one cap daily with food.</t>
+    <t>Vitamin A 25,000 IU</t>
+  </si>
+  <si>
+    <t>4 Softgel capsules</t>
+  </si>
+  <si>
+    <t>Rosacea</t>
+  </si>
+  <si>
+    <t>07/28/2021</t>
+  </si>
+  <si>
+    <t>Take 4 gel capsules daily for 2 weeks</t>
+  </si>
+  <si>
+    <t>08/10/2021</t>
   </si>
   <si>
     <t>Raelynne</t>
@@ -208,6 +249,9 @@
     <t>04-23-2005</t>
   </si>
   <si>
+    <t>663825</t>
+  </si>
+  <si>
     <t>Guanfacine HCL ER 2mg</t>
   </si>
   <si>
@@ -223,25 +267,28 @@
     <t>ADHD</t>
   </si>
   <si>
-    <t>05/06/2021</t>
+    <t>06/03/2021</t>
   </si>
   <si>
     <t>Take one tablet by mouth every day in the morning.</t>
   </si>
   <si>
-    <t>Vyvanse 40 mg</t>
+    <t>663840</t>
+  </si>
+  <si>
+    <t>Vyvanse 40 mg capsule</t>
   </si>
   <si>
     <t>1 capsule</t>
   </si>
   <si>
-    <t>05/12/2021</t>
+    <t>07/25/2021</t>
   </si>
   <si>
     <t>Take one capsule by mouth every day in the morning.</t>
   </si>
   <si>
-    <t>B-Complex w/Metafolin </t>
+    <t>B-Complex w/Metafolin capsule</t>
   </si>
   <si>
     <t>B12 Deficiency</t>
@@ -262,33 +309,33 @@
     <t>11-18-2009</t>
   </si>
   <si>
+    <t>Chronic headaches</t>
+  </si>
+  <si>
+    <t>02/27/2021</t>
+  </si>
+  <si>
+    <t>2 caps daily in the morning.</t>
+  </si>
+  <si>
+    <t>N-Acetyl-Cysteine (NAC) 600mg</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>1 cap daily in the morning.</t>
+  </si>
+  <si>
     <t>2 pellets</t>
   </si>
   <si>
-    <t>Chronic headaches</t>
-  </si>
-  <si>
     <t>02/25/2021</t>
   </si>
   <si>
     <t>Take 2 pellets 2x daily; am/pm.</t>
   </si>
   <si>
-    <t>N-Acetyl-Cycstein (NAC) 600mg</t>
-  </si>
-  <si>
-    <t>12/04/2020</t>
-  </si>
-  <si>
-    <t>1 cap daily in the morning.</t>
-  </si>
-  <si>
-    <t>02/27/2021</t>
-  </si>
-  <si>
-    <t>2 caps daily in the morning.</t>
-  </si>
-  <si>
     <t>Zara</t>
   </si>
   <si>
@@ -307,70 +354,151 @@
     <t>Insomnia</t>
   </si>
   <si>
-    <t>06/10/2021</t>
+    <t>11/05/2021</t>
   </si>
   <si>
     <t>Take 1 tablet before bed as needed for sleep</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Homes</t>
-  </si>
-  <si>
-    <t>05-30-2021</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>McCoy</t>
-  </si>
-  <si>
-    <t>06-22-2021</t>
-  </si>
-  <si>
-    <t>Benzoid</t>
-  </si>
-  <si>
-    <t>dr. name</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>2 MG</t>
-  </si>
-  <si>
-    <t>For Medical Issues</t>
-  </si>
-  <si>
-    <t>06/21/2021</t>
-  </si>
-  <si>
-    <t>02:43 pm</t>
-  </si>
-  <si>
-    <t>John Snow</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>07/19/2021</t>
-  </si>
-  <si>
-    <t>02:55 pm</t>
+    <t>Lilliana</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>09-01-2008</t>
+  </si>
+  <si>
+    <t>Ars 200c homeopathic pellets</t>
+  </si>
+  <si>
+    <t>02/07/2021</t>
+  </si>
+  <si>
+    <t>Take 2 pellets 2x day; AM/PM</t>
+  </si>
+  <si>
+    <t>MagSoothe 200mg powder</t>
+  </si>
+  <si>
+    <t>1 Packet</t>
+  </si>
+  <si>
+    <t>05/13/2020</t>
+  </si>
+  <si>
+    <t>1 packet in a glass of water before bed</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>10-09-2014</t>
+  </si>
+  <si>
+    <t>Smarty Pants Kids Multivitamin</t>
+  </si>
+  <si>
+    <t>2 Gummies</t>
+  </si>
+  <si>
+    <t>Vitamin Deficiencies</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>Chews 4 gummies daily - 2 in AM &amp; 2 in PM</t>
+  </si>
+  <si>
+    <t>Kids Probiotic - Chew On This</t>
+  </si>
+  <si>
+    <t>1 Tablet</t>
+  </si>
+  <si>
+    <t>02/22/2021</t>
+  </si>
+  <si>
+    <t>Chew 1 tablet daily</t>
+  </si>
+  <si>
+    <t>Smarty Pants Kids Immunity</t>
+  </si>
+  <si>
+    <t>05/21/2021</t>
+  </si>
+  <si>
+    <t>Chew 2 gummies daily</t>
+  </si>
+  <si>
+    <t>Miklo</t>
+  </si>
+  <si>
+    <t>Cristerna</t>
+  </si>
+  <si>
+    <t>06-14-2007</t>
+  </si>
+  <si>
+    <t>Cytoplan 5-HTP Plus</t>
+  </si>
+  <si>
+    <t>2 Capsules</t>
+  </si>
+  <si>
+    <t>2 capsules daily; AM</t>
+  </si>
+  <si>
+    <t>Digestive Enzymes</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Distress</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>As needed when eating dairy, 1 cap with meals with dairy</t>
+  </si>
+  <si>
+    <t>02:14 pm</t>
+  </si>
+  <si>
+    <t>Chuck Cruse</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>nope he didnt</t>
+    <t>not needed</t>
+  </si>
+  <si>
+    <t>Lactase</t>
+  </si>
+  <si>
+    <t>As needed when eating any dairy</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ovard</t>
+  </si>
+  <si>
+    <t>10-22-2009</t>
+  </si>
+  <si>
+    <t>Melatonin 1mg</t>
+  </si>
+  <si>
+    <t>2 Tablets</t>
+  </si>
+  <si>
+    <t>Swallow 2 tabs at bedtime</t>
   </si>
 </sst>
 </file>
@@ -424,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -471,16 +599,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -489,93 +617,93 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -583,36 +711,36 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>34</v>
@@ -620,7 +748,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>35</v>
@@ -628,7 +756,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>36</v>
@@ -636,40 +764,40 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>10</v>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -677,44 +805,44 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>35</v>
@@ -722,129 +850,43 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="0" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>19</v>
+      <c r="D45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -882,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -890,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -898,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -919,174 +961,387 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>19</v>
+      <c r="D33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1124,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1132,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1140,19 +1395,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1161,93 +1416,93 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1255,93 +1510,93 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>10</v>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1349,80 +1604,88 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="0" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>19</v>
+      <c r="D45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1460,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1468,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1476,19 +1739,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1497,93 +1760,93 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1591,93 +1854,93 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>10</v>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1685,80 +1948,88 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="0" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>19</v>
+      <c r="D45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1796,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1804,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1812,19 +2083,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1833,80 +2104,88 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1944,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1952,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1960,7 +2239,203 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1998,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2006,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2014,19 +2489,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2035,114 +2510,793 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>19</v>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
